--- a/public/DownloadExcels/Colaboradores.xlsx
+++ b/public/DownloadExcels/Colaboradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F58161-241B-4C21-A86B-EB0F6F062EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A81916-A7C8-466D-95B6-D661E2534314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1107">
   <si>
     <t>Instrucciones para diligenciar el formulario</t>
   </si>
@@ -3216,33 +3216,6 @@
   </si>
   <si>
     <t>13. OBLIGATORIO: En la columna L, ESCRIBE LA DIRECCION DEL / DE LA USUARI@.</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>carlosmario.reyesp@gmail.com</t>
-  </si>
-  <si>
-    <t>cmario.reyesp@gmail.com</t>
-  </si>
-  <si>
-    <t>PlopPlop15</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Cra 100</t>
-  </si>
-  <si>
-    <t>Cra 200</t>
   </si>
   <si>
     <t>CREACION MASIVA DE COLABORADORES</t>
@@ -3902,6 +3875,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3920,22 +3909,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -4304,7 +4277,7 @@
   <dimension ref="A1:L888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,46 +4297,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="38" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="B2" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>1071</v>
+      <c r="I2" s="35" t="s">
+        <v>1062</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>4</v>
@@ -4371,8 +4344,8 @@
       <c r="K2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>1073</v>
+      <c r="L2" s="32" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,77 +4390,33 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1054111222</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3128082002</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>1063</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1110521285</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3128082002</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>1064</v>
-      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -17251,12 +17180,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{1E6561D2-ACB1-44FC-97B6-7381A80867E1}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{5C8E110A-63D0-4F22-9EB9-3563D67B6FEE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -17301,20 +17226,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17421,21 +17346,21 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1042</v>
@@ -17458,7 +17383,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -17469,7 +17394,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17477,10 +17402,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17488,15 +17413,15 @@
         <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>19</v>
@@ -17507,12 +17432,12 @@
         <v>20</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="17" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>21</v>
@@ -17544,7 +17469,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" s="17" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>28</v>
@@ -17552,10 +17477,10 @@
     </row>
     <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>1081</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17568,10 +17493,10 @@
     </row>
     <row r="17" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="17" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
@@ -17603,7 +17528,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17619,7 +17544,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17640,7 +17565,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="17" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>45</v>
@@ -17656,7 +17581,7 @@
     </row>
     <row r="28" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="17" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>49</v>
@@ -17675,7 +17600,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
@@ -17696,10 +17621,10 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="17" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
@@ -17727,7 +17652,7 @@
     </row>
     <row r="38" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="21" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
@@ -17737,7 +17662,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40" s="15" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
@@ -17752,7 +17677,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E43" s="15" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
@@ -17767,22 +17692,22 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="15" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="47" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E47" s="21" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E48" s="15" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="49" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E49" s="21" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="50" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17822,7 +17747,7 @@
     </row>
     <row r="57" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E57" s="21" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="58" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -17867,7 +17792,7 @@
     </row>
     <row r="66" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E66" s="21" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
@@ -17917,17 +17842,17 @@
     </row>
     <row r="76" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="21" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E77" s="21" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="78" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E78" s="21" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.25">
@@ -17972,7 +17897,7 @@
     </row>
     <row r="87" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E87" s="21" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="88" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -18007,32 +17932,32 @@
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="15" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="15" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="96" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E96" s="21" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="43" t="s">
-        <v>1111</v>
+      <c r="E97" s="37" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="15" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="99" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E99" s="21" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">

--- a/public/DownloadExcels/Colaboradores.xlsx
+++ b/public/DownloadExcels/Colaboradores.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A81916-A7C8-466D-95B6-D661E2534314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67B9BC-B1C0-48F5-BBB7-73C6EB3C19C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREACION MASIVA DE USUARIO" sheetId="1" r:id="rId1"/>
     <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId3"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -4277,7 +4277,7 @@
   <dimension ref="A1:L888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/DownloadExcels/Colaboradores.xlsx
+++ b/public/DownloadExcels/Colaboradores.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67B9BC-B1C0-48F5-BBB7-73C6EB3C19C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A9E4B-952D-42B6-BD34-934E4A59A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CREACION MASIVA DE USUARIO" sheetId="1" r:id="rId1"/>
-    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId1"/>
+    <sheet name="CREACION MASIVA DE USUARIO" sheetId="1" r:id="rId2"/>
     <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -3790,7 +3790,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -3890,7 +3890,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4273,10 +4272,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE675F4F-629C-4187-9AAB-FE872DEAD2D4}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4297,20 +4395,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>1056</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -17215,105 +17313,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE675F4F-629C-4187-9AAB-FE872DEAD2D4}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119C998-4A09-4757-8BCE-00316CEA9343}">
   <dimension ref="B1:E1116"/>
@@ -17946,7 +17945,7 @@
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="37" t="s">
+      <c r="E97" s="15" t="s">
         <v>1102</v>
       </c>
     </row>
